--- a/OREI_files/40-herd data/model building outlines by outcome.xlsx
+++ b/OREI_files/40-herd data/model building outlines by outcome.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/40-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2493" documentId="8_{4C00E29B-717C-4E5F-BAFA-E049B9B34B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4FB69A1-9BC5-44F8-8650-FADF0C267B81}"/>
+  <xr:revisionPtr revIDLastSave="2495" documentId="8_{4C00E29B-717C-4E5F-BAFA-E049B9B34B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4A808F7-B2B4-4BCC-8562-FA94CBCE5830}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="882" xr2:uid="{C2FC336E-2541-4B5D-A4A8-D390CA810D45}"/>
+    <workbookView xWindow="29715" yWindow="0" windowWidth="14610" windowHeight="15480" tabRatio="882" xr2:uid="{C2FC336E-2541-4B5D-A4A8-D390CA810D45}"/>
   </bookViews>
   <sheets>
     <sheet name="outcomes" sheetId="2" r:id="rId1"/>
@@ -1991,9 +1991,6 @@
     <t xml:space="preserve">* DESCRIPTIVE STATISTICS of outcomes </t>
   </si>
   <si>
-    <t>* 2 tables with BTM culture data, DHIA and SCC data</t>
-  </si>
-  <si>
     <t>* UNIVARIATE ANALYSIS OF UDDER HEALTH OUTCOMES BY FACILITY TYPE</t>
   </si>
   <si>
@@ -2013,6 +2010,9 @@
   </si>
   <si>
     <t>"Results" to include for manuscript:</t>
+  </si>
+  <si>
+    <t>* 3 tables with BTM culture data, DHIA and SCC, hygiene data</t>
   </si>
 </sst>
 </file>
@@ -2330,11 +2330,21 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2345,16 +2355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,21 +2682,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6ED86-D641-4AB9-B1CB-02BF220C85BF}">
   <dimension ref="A2:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="L2" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
@@ -2708,7 +2708,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="M4" s="50" t="s">
+      <c r="M4" s="45" t="s">
         <v>501</v>
       </c>
       <c r="N4" s="1"/>
@@ -2745,11 +2745,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="N7" s="52"/>
-      <c r="O7" s="51"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="46"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -2760,11 +2760,11 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="M8" s="52"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="O8" s="51"/>
+        <v>511</v>
+      </c>
+      <c r="O8" s="46"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -2776,8 +2776,8 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="M10" s="55" t="s">
-        <v>505</v>
+      <c r="M10" s="49" t="s">
+        <v>504</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2790,25 +2790,25 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="53" t="s">
-        <v>506</v>
-      </c>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
+      <c r="N11" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
@@ -2819,15 +2819,15 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -2847,7 +2847,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="M14" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N14" s="5"/>
     </row>
@@ -2861,7 +2861,7 @@
       <c r="E15" s="3"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -2874,10 +2874,10 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M17" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="N17" s="56"/>
+      <c r="M17" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
@@ -2885,9 +2885,9 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56" t="s">
-        <v>510</v>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3512,11 +3512,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -3539,7 +3539,7 @@
       <c r="A5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -3552,7 +3552,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
@@ -7519,11 +7519,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -7546,7 +7546,7 @@
       <c r="A5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7559,7 +7559,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -7568,7 +7568,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
@@ -12501,11 +12501,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -12526,7 +12526,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -12539,7 +12539,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -16516,11 +16516,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -16541,7 +16541,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -16554,7 +16554,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -21513,11 +21513,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -21538,7 +21538,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -21551,7 +21551,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -25566,11 +25566,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -25591,7 +25591,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -25604,7 +25604,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -30244,11 +30244,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -30269,7 +30269,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -30282,7 +30282,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -34319,11 +34319,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -34344,7 +34344,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -34357,7 +34357,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -38966,11 +38966,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -38991,7 +38991,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -39004,7 +39004,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -42875,11 +42875,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">
@@ -42900,7 +42900,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -42913,7 +42913,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="49"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
@@ -46288,11 +46288,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
     </row>
     <row r="4" spans="1:21" s="12" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="13" t="s">

--- a/OREI_files/40-herd data/model building outlines by outcome.xlsx
+++ b/OREI_files/40-herd data/model building outlines by outcome.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2615" documentId="8_{4C00E29B-717C-4E5F-BAFA-E049B9B34B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08DB9578-BB5E-42F3-BC04-11A7F3A2D912}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="882" firstSheet="5" activeTab="8" xr2:uid="{C2FC336E-2541-4B5D-A4A8-D390CA810D45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="882" firstSheet="28" activeTab="33" xr2:uid="{C2FC336E-2541-4B5D-A4A8-D390CA810D45}"/>
   </bookViews>
   <sheets>
     <sheet name="outcomes" sheetId="2" r:id="rId1"/>
@@ -2093,8 +2093,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -2402,6 +2402,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2417,17 +2428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2755,17 +2755,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E6ED86-D641-4AB9-B1CB-02BF220C85BF}">
   <dimension ref="A2:V20"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K5" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="L2" s="7" t="s">
@@ -2863,25 +2863,25 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="44" t="s">
+      <c r="N11" s="51" t="s">
         <v>505</v>
       </c>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
@@ -2892,15 +2892,15 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -3085,7 +3085,7 @@
       <c r="E5">
         <v>0.01</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="43">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="G5" s="22" t="s">
@@ -3339,7 +3339,7 @@
       <c r="E26" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="44" t="s">
         <v>523</v>
       </c>
       <c r="G26" s="24"/>
@@ -3375,7 +3375,7 @@
       <c r="A29" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="50">
+      <c r="E29" s="45">
         <v>0.29399999999999998</v>
       </c>
       <c r="F29" s="32">
@@ -3410,7 +3410,7 @@
       <c r="A32" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="E32" s="51">
+      <c r="E32" s="46">
         <v>1.7950000000000001E-2</v>
       </c>
       <c r="F32" s="33">
@@ -3448,7 +3448,7 @@
       <c r="A35" t="s">
         <v>319</v>
       </c>
-      <c r="E35" s="52">
+      <c r="E35" s="47">
         <v>1.06E-3</v>
       </c>
       <c r="F35" s="32">
@@ -3489,7 +3489,7 @@
       <c r="E38" s="33">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F38" s="51">
+      <c r="F38" s="46">
         <v>0.997</v>
       </c>
       <c r="H38" s="23" t="s">
@@ -3504,7 +3504,7 @@
     </row>
     <row r="39" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E39" s="33"/>
-      <c r="F39" s="51"/>
+      <c r="F39" s="46"/>
       <c r="J39" s="23" t="s">
         <v>343</v>
       </c>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="40" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E40" s="33"/>
-      <c r="F40" s="51"/>
+      <c r="F40" s="46"/>
       <c r="J40" s="23" t="s">
         <v>342</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="A41" t="s">
         <v>317</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="45">
         <v>3.1722E-2</v>
       </c>
       <c r="F41" s="32">
@@ -3567,7 +3567,7 @@
       <c r="E44" s="33">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F44" s="51">
+      <c r="F44" s="46">
         <v>0.997</v>
       </c>
       <c r="H44" s="23" t="s">
@@ -3582,7 +3582,7 @@
     </row>
     <row r="45" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E45" s="33"/>
-      <c r="F45" s="51"/>
+      <c r="F45" s="46"/>
       <c r="J45" s="23" t="s">
         <v>339</v>
       </c>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="46" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E46" s="33"/>
-      <c r="F46" s="51"/>
+      <c r="F46" s="46"/>
       <c r="J46" s="23" t="s">
         <v>338</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="A47" t="s">
         <v>315</v>
       </c>
-      <c r="E47" s="50">
+      <c r="E47" s="45">
         <v>0.372</v>
       </c>
       <c r="F47" s="32">
@@ -3642,7 +3642,7 @@
       <c r="E50" s="33">
         <v>5.2200000000000003E-2</v>
       </c>
-      <c r="F50" s="51">
+      <c r="F50" s="46">
         <v>0.38100000000000001</v>
       </c>
       <c r="G50" s="24" t="s">
@@ -3657,7 +3657,7 @@
     </row>
     <row r="51" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E51" s="33"/>
-      <c r="F51" s="51"/>
+      <c r="F51" s="46"/>
       <c r="J51" s="23" t="s">
         <v>339</v>
       </c>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="52" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E52" s="33"/>
-      <c r="F52" s="51"/>
+      <c r="F52" s="46"/>
       <c r="J52" s="23" t="s">
         <v>338</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="A53" t="s">
         <v>313</v>
       </c>
-      <c r="E53" s="50">
+      <c r="E53" s="45">
         <v>0.92400000000000004</v>
       </c>
       <c r="F53" s="32">
@@ -3717,7 +3717,7 @@
       <c r="E56" s="33">
         <v>0.73599999999999999</v>
       </c>
-      <c r="F56" s="51">
+      <c r="F56" s="46">
         <v>0.71899999999999997</v>
       </c>
       <c r="J56" s="23" t="s">
@@ -3729,7 +3729,7 @@
     </row>
     <row r="57" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E57" s="33"/>
-      <c r="F57" s="51"/>
+      <c r="F57" s="46"/>
       <c r="J57" s="23" t="s">
         <v>339</v>
       </c>
@@ -3739,7 +3739,7 @@
     </row>
     <row r="58" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E58" s="33"/>
-      <c r="F58" s="51"/>
+      <c r="F58" s="46"/>
       <c r="J58" s="23" t="s">
         <v>338</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="A59" t="s">
         <v>311</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="45">
         <v>0.75900000000000001</v>
       </c>
       <c r="F59" s="32">
@@ -3786,7 +3786,7 @@
       <c r="A62" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="42">
         <v>2.27E-5</v>
       </c>
       <c r="F62" s="25">
@@ -4000,10 +4000,10 @@
       <c r="A12" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="45">
         <v>0.10199999999999999</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="45">
         <v>0.34</v>
       </c>
       <c r="F12" s="22" t="s">
@@ -4089,10 +4089,10 @@
       <c r="A19" t="s">
         <v>373</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="45">
         <v>0.38600000000000001</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="45">
         <v>0.85099999999999998</v>
       </c>
       <c r="F19" s="27"/>
@@ -4253,10 +4253,10 @@
       <c r="A32" t="s">
         <v>377</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="45">
         <v>8.4879999999999997E-2</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="45">
         <v>0.38500000000000001</v>
       </c>
       <c r="F32" s="22" t="s">
@@ -4273,10 +4273,10 @@
       <c r="A33" t="s">
         <v>378</v>
       </c>
-      <c r="D33" s="50">
+      <c r="D33" s="45">
         <v>8.7299999999999999E-3</v>
       </c>
-      <c r="E33" s="50">
+      <c r="E33" s="45">
         <v>0.27600000000000002</v>
       </c>
       <c r="F33" s="22"/>
@@ -4587,10 +4587,10 @@
       <c r="A6" t="s">
         <v>429</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="47">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="45">
         <v>0.83299999999999996</v>
       </c>
       <c r="F6" s="22" t="s">
@@ -4607,10 +4607,10 @@
       <c r="A7" t="s">
         <v>472</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="45">
         <v>0.61</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="45">
         <v>0.72499999999999998</v>
       </c>
       <c r="F7" s="27"/>
@@ -4679,10 +4679,10 @@
       <c r="A13" t="s">
         <v>474</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="45">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="45">
         <v>0.81</v>
       </c>
       <c r="F13" s="27"/>
@@ -4694,8 +4694,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
       <c r="F14" s="27"/>
       <c r="I14" t="s">
         <v>395</v>
@@ -4705,8 +4705,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="27"/>
       <c r="I15" t="s">
         <v>475</v>
@@ -4761,10 +4761,10 @@
       <c r="A19" t="s">
         <v>489</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="45">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="45">
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="F19" s="22" t="s">
@@ -4778,8 +4778,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="27"/>
       <c r="I20" t="s">
         <v>453</v>
@@ -4789,8 +4789,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="27"/>
       <c r="I21" t="s">
         <v>490</v>
@@ -4861,10 +4861,10 @@
       <c r="A26" t="s">
         <v>495</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="45">
         <v>0.11</v>
       </c>
-      <c r="E26" s="50">
+      <c r="E26" s="45">
         <v>0.97</v>
       </c>
       <c r="F26" s="22" t="s">
@@ -4878,8 +4878,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
       <c r="F27" s="27"/>
       <c r="I27" t="s">
         <v>395</v>
@@ -4889,8 +4889,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="27"/>
       <c r="I28" t="s">
         <v>492</v>
@@ -4945,10 +4945,10 @@
       <c r="A32" t="s">
         <v>441</v>
       </c>
-      <c r="D32" s="50">
+      <c r="D32" s="45">
         <v>0.34</v>
       </c>
-      <c r="E32" s="50">
+      <c r="E32" s="45">
         <v>0.12</v>
       </c>
       <c r="F32" s="22"/>
@@ -4960,8 +4960,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="27"/>
       <c r="I33" t="s">
         <v>459</v>
@@ -4971,8 +4971,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="27"/>
       <c r="I34" t="s">
         <v>395</v>
@@ -5025,10 +5025,10 @@
       <c r="A38" t="s">
         <v>497</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="45">
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="E38" s="50">
+      <c r="E38" s="45">
         <v>0.47</v>
       </c>
       <c r="F38" s="22" t="s">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="50">
+      <c r="D2" s="45">
         <v>0.2</v>
       </c>
       <c r="E2">
@@ -5464,7 +5464,7 @@
       <c r="D16">
         <v>0.03</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="48">
         <v>1</v>
       </c>
       <c r="F16" s="27" t="s">
@@ -12789,7 +12789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFF2E9A-F33E-4139-B8B0-D8C2ACA15769}">
   <dimension ref="A3:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C4" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -12804,11 +12804,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -13552,8 +13552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13711B4A-7E0F-4F64-841B-205A10B9A93B}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView zoomScale="94" zoomScaleNormal="61" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14516,8 +14516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66B6863-2EFE-4A40-9151-89A1923F4F08}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD44"/>
+    <sheetView topLeftCell="A10" zoomScale="109" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15460,8 +15460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F8C1D6-6A5C-4159-9869-CC9DEEC3EECA}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD35"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16215,7 +16215,7 @@
   <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16807,11 +16807,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -16834,7 +16834,7 @@
       <c r="A5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -16847,7 +16847,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -16856,7 +16856,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="46"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
@@ -21715,7 +21715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A84B6-0DD4-41A6-BBAC-86D02ACC72D0}">
   <dimension ref="A3:U67"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -21730,11 +21730,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -21757,7 +21757,7 @@
       <c r="A5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -21770,7 +21770,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -21779,7 +21779,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B7" s="46"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
@@ -22481,7 +22481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2D8A56-71FA-43EF-B3B9-0E7D410A87C4}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="84" workbookViewId="0">
       <selection activeCell="I59" sqref="I59:J61"/>
     </sheetView>
   </sheetViews>
@@ -23475,7 +23475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD22CB-7F19-4538-91EB-8F620249B6E7}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -25738,11 +25738,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -25763,7 +25763,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -25776,7 +25776,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -30405,11 +30405,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -30430,7 +30430,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -30443,7 +30443,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -34455,11 +34455,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -34480,7 +34480,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -34493,7 +34493,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -39084,11 +39084,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -39109,7 +39109,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -39122,7 +39122,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -43103,11 +43103,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -43128,7 +43128,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -43141,7 +43141,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -48153,11 +48153,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -48178,7 +48178,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -48191,7 +48191,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -52219,11 +52219,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -52244,7 +52244,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -52257,7 +52257,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -57039,11 +57039,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:21" s="9" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="10" t="s">
@@ -57064,7 +57064,7 @@
     </row>
     <row r="5" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="52" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -57077,7 +57077,7 @@
       <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B6" s="46"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
@@ -61615,7 +61615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975E982D-935D-462F-8522-CDCE0E47AB28}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
